--- a/excel_reporting_templates/ProductCarbonFootprintForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/ProductCarbonFootprintForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="semantic_aspect_model_schema" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="possible_values" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="description" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,11 +57,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:T999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,75 +440,4121 @@
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="46.8" customWidth="1" min="5" max="5"/>
+    <col width="40.8" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="40.8" customWidth="1" min="8" max="8"/>
+    <col width="43.2" customWidth="1" min="9" max="9"/>
+    <col width="37.2" customWidth="1" min="10" max="10"/>
+    <col width="49.2" customWidth="1" min="11" max="11"/>
+    <col width="39.6" customWidth="1" min="12" max="12"/>
+    <col width="40.8" customWidth="1" min="13" max="13"/>
+    <col width="34.8" customWidth="1" min="14" max="14"/>
+    <col width="39.6" customWidth="1" min="15" max="15"/>
+    <col width="39.6" customWidth="1" min="16" max="16"/>
+    <col width="38.4" customWidth="1" min="17" max="17"/>
+    <col width="50" customWidth="1" min="18" max="18"/>
+    <col width="19.2" customWidth="1" min="19" max="19"/>
+    <col width="21.6" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unique identifier for the carbon footprint data.</t>
+          <t>cxPCFValues_sharesPerStage_stage1RawMaterialAquisitionPreProcessing_stageValue</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Describes a Property which contains plain text.</t>
+          <t>cxPCFValues_sharesPerStage_stage2MainProductProduction_stageValue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Characteristic of a numeric value.</t>
+          <t>cxPCFValues_sharesPerStage_stage3Distribution_stageValue</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Describes a Property which contains plain text.</t>
+          <t>cxPCFValues_sharesPerStage_stage4EndOfLifeRecycling_stageValue</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Characteristic of a numeric value.</t>
+          <t>cxPCFValues_sharesPerStage_declaredUnit</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Describes a Property which contains plain text.</t>
+          <t>cxPCFValues_rawData[0]_description</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cxPCFValues_rawData[0]_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cxPCFValues_rawData[0]_data[0]_key</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cxPCFValues_rawData[0]_data[0]_value</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>cxPCFValues_pcfPerformanceClass</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>cxPCFValues_webLinkToCarbonFootPrintStudy</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>dataQualityRating_coveragePercent</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>dataQualityRating_technologicalDQR</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>dataQualityRating_temporalDQR</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>dataQualityRating_geographicalDQR</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>dataQualityRating_completenessDQR</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>dataQualityRating_reliabilityDQR</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>secondaryEmissionFactorSources[0]_secondaryEmissionFactorSource</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>primaryDataShare</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>manufacturerPartId</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>identifier</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>carbonFootprintSpecifications_co2Emissions_measurementUnit</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>carbonFootprintSpecifications_co2Emissions_measurementValue</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>carbonFootprintSpecifications_energyConsumption_measurementUnit</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>carbonFootprintSpecifications_energyConsumption_measurementValue</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>carbonFootprintSpecifications_materialImpact</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
   </sheetData>
+  <dataValidations count="998">
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E9" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E10" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E11" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E12" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E13" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E14" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E15" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E16" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E17" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E18" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E19" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E20" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E21" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E22" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E23" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E24" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E25" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E26" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E27" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E28" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E29" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E30" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E31" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E32" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E33" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E34" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E35" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E36" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E37" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E38" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E39" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E40" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E41" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E42" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E43" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E44" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E45" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E46" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E47" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E48" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E49" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E51" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E52" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E54" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E55" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E56" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E57" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E58" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E59" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E60" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E61" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E62" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E63" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E64" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E65" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E66" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E67" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E68" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E69" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E70" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E71" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E72" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E73" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E74" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E75" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E76" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E77" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E78" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E79" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E80" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E81" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E82" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E83" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E84" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E85" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E86" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E87" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E88" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E89" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E90" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E91" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E92" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E93" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E94" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E95" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E96" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E97" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E98" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E99" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E100" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E101" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E102" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E103" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E104" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E105" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E106" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E107" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E108" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E109" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E110" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E111" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E112" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E113" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E114" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E115" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E116" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E117" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E118" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E119" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E120" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E121" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E122" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E123" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E124" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E125" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E126" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E127" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E128" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E129" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E130" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E131" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E132" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E133" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E134" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E135" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E136" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E137" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E138" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E139" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E140" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E141" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E142" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E143" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E144" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E145" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E146" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E147" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E148" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E149" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E150" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E151" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E152" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E153" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E154" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E155" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E156" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E157" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E158" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E159" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E160" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E161" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E162" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E163" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E164" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E165" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E166" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E167" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E168" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E169" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E170" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E171" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E172" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E173" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E174" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E175" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E176" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E177" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E178" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E179" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E180" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E181" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E182" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E183" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E184" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E185" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E186" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E187" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E188" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E189" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E190" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E191" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E192" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E193" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E194" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E195" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E196" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E197" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E198" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E199" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E200" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E201" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E202" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E203" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E204" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E205" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E206" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E207" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E208" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E209" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E210" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E211" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E212" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E213" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E214" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E215" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E216" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E217" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E218" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E219" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E220" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E221" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E222" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E223" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E224" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E225" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E226" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E227" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E228" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E229" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E230" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E231" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E232" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E233" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E234" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E235" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E236" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E237" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E238" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E239" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E240" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E241" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E242" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E243" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E244" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E245" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E246" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E247" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E248" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E249" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E250" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E251" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E252" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E253" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E254" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E255" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E256" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E257" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E258" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E259" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E260" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E261" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E262" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E263" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E264" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E265" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E266" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E267" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E268" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E269" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E270" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E271" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E272" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E273" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E274" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E275" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E276" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E277" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E278" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E279" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E280" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E281" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E282" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E283" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E284" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E285" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E286" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E287" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E288" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E289" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E290" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E291" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E292" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E293" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E294" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E295" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E296" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E297" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E298" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E299" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E300" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E301" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E302" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E303" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E304" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E305" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E306" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E307" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E308" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E309" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E310" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E311" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E312" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E313" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E314" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E315" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E316" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E317" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E318" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E319" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E320" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E321" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E322" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E323" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E324" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E325" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E326" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E327" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E328" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E329" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E330" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E331" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E332" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E333" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E334" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E335" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E336" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E337" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E338" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E339" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E340" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E341" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E342" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E343" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E344" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E345" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E346" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E347" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E348" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E349" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E350" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E351" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E352" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E353" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E354" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E355" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E356" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E357" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E358" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E359" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E360" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E361" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E362" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E363" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E364" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E365" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E366" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E367" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E368" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E369" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E370" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E371" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E372" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E373" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E374" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E375" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E376" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E377" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E378" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E379" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E380" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E381" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E382" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E383" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E384" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E385" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E386" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E387" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E388" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E389" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E390" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E391" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E392" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E393" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E394" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E395" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E396" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E397" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E398" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E399" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E400" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E401" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E402" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E403" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E404" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E405" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E406" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E407" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E408" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E409" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E410" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E411" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E412" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E413" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E414" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E415" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E416" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E417" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E418" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E419" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E420" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E421" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E422" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E423" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E424" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E425" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E426" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E427" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E428" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E429" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E430" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E431" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E432" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E433" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E434" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E435" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E436" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E437" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E438" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E439" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E440" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E441" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E442" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E443" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E444" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E445" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E446" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E447" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E448" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E449" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E450" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E451" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E452" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E453" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E454" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E455" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E456" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E457" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E458" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E459" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E460" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E461" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E462" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E463" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E464" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E465" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E466" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E467" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E468" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E469" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E470" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E471" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E472" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E473" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E474" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E475" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E476" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E477" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E478" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E479" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E480" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E481" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E482" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E483" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E484" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E485" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E486" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E487" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E488" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E489" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E490" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E491" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E492" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E493" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E494" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E495" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E496" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E497" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E498" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E499" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E500" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E501" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E502" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E503" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E504" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E505" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E506" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E507" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E508" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E509" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E510" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E511" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E512" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E513" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E514" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E515" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E516" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E517" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E518" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E519" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E520" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E521" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E522" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E523" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E524" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E525" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E526" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E527" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E528" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E529" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E530" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E531" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E532" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E533" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E534" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E535" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E536" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E537" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E538" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E539" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E540" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E541" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E542" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E543" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E544" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E545" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E546" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E547" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E548" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E549" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E550" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E551" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E552" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E553" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E554" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E555" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E556" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E557" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E558" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E559" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E560" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E561" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E562" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E563" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E564" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E565" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E566" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E567" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E568" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E569" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E570" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E571" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E572" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E573" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E574" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E575" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E577" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E578" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E579" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E580" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E581" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E582" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E583" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E584" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E585" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E586" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E587" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E588" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E589" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E590" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E591" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E592" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E593" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E594" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E595" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E596" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E597" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E598" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E599" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E600" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E601" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E602" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E603" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E604" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E605" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E606" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E607" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E608" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E609" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E610" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E611" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E612" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E613" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E614" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E615" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E616" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E617" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E618" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E619" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E620" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E621" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E622" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E623" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E624" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E625" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E626" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E627" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E628" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E629" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E630" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E631" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E632" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E633" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E634" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E635" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E636" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E637" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E638" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E639" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E640" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E641" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E642" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E643" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E644" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E645" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E646" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E647" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E648" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E649" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E650" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E651" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E652" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E653" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E654" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E655" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E656" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E657" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E658" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E659" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E660" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E661" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E662" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E663" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E664" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E665" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E666" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E667" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E668" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E669" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E670" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E671" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E672" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E673" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E674" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E675" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E676" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E677" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E678" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E679" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E680" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E681" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E682" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E683" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E684" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E685" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E686" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E687" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E688" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E689" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E690" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E691" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E692" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E693" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E694" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E695" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E696" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E697" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E698" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E699" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E700" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E701" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E702" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E703" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E704" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E705" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E706" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E707" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E708" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E709" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E710" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E711" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E712" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E713" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E714" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E715" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E716" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E717" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E718" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E719" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E720" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E721" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E722" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E723" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E724" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E725" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E726" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E727" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E728" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E729" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E730" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E731" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E732" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E733" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E734" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E735" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E736" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E737" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E738" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E739" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E740" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E741" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E742" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E743" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E744" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E745" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E746" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E747" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E748" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E749" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E750" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E751" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E752" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E753" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E754" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E755" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E756" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E757" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E758" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E759" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E760" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E761" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E762" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E763" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E764" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E765" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E766" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E767" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E768" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E769" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E770" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E771" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E772" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E773" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E774" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E775" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E776" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E777" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E778" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E779" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E780" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E781" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E782" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E783" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E784" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E785" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E786" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E787" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E788" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E789" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E790" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E791" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E792" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E793" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E794" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E795" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E796" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E797" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E798" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E799" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E800" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E801" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E802" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E803" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E804" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E805" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E806" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E807" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E808" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E809" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E810" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E811" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E812" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E813" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E814" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E815" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E816" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E817" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E818" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E819" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E820" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E821" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E822" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E823" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E824" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E825" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E826" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E827" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E828" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E829" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E830" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E831" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E832" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E833" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E834" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E835" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E836" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E837" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E838" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E839" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E840" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E841" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E842" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E843" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E844" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E845" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E846" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E847" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E848" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E849" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E850" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E851" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E852" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E853" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E854" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E855" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E856" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E857" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E858" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E859" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E860" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E861" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E862" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E863" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E864" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E865" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E866" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E867" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E868" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E869" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E870" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E871" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E872" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E873" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E874" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E875" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E876" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E877" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E878" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E879" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E880" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E881" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E882" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E883" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E884" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E885" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E886" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E887" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E888" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E889" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E890" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E891" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E892" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E893" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E894" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E895" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E896" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E897" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E898" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E899" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E900" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E901" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E902" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E903" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E904" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E905" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E906" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E907" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E908" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E909" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E910" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E911" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E912" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E913" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E914" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E915" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E916" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E917" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E918" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E919" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E920" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E921" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E922" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E923" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E924" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E925" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E926" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E927" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E928" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E929" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E930" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E931" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E932" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E933" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E934" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E935" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E936" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E937" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E938" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E939" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E940" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E941" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E942" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E943" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E944" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E945" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E946" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E947" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E948" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E949" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E950" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E951" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E952" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E953" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E954" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E955" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E956" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E957" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E958" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E959" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E960" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E961" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E962" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E963" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E964" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E965" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E966" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E967" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E968" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E969" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E970" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E971" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E972" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E973" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E974" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E975" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E976" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E977" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E978" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E979" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E980" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E981" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E982" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E983" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E984" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E985" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E986" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E987" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E988" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E989" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E990" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E991" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E992" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E993" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E994" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E995" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E996" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E997" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E998" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E999" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -517,14 +4565,397 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>cxPCFValues_sharesPerStage_declaredUnit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C02KG/KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C02KG/piece</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Possible Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cxPCFValues_sharesPerStage_stage1RawMaterialAquisitionPreProcessing_stageValue</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Enter the PCF value of the parent stage measured in the declared unit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cxPCFValues_sharesPerStage_stage2MainProductProduction_stageValue</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Enter the PCF value of the parent stage measured in the declared unit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cxPCFValues_sharesPerStage_stage3Distribution_stageValue</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enter the PCF value of the parent stage measured in the declared unit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cxPCFValues_sharesPerStage_stage4EndOfLifeRecycling_stageValue</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Enter the PCF value of the parent stage measured in the declared unit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cxPCFValues_sharesPerStage_declaredUnit</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>This attribute defines the unit of the attribute absPCFValue. It is one of C02KG/kg OR C02KG/piece"</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['C02KG/KG', 'C02KG/piece']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cxPCFValues_rawData[0]_description</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>This field contains the description of the contained data. Use this field to provide information on the data provided in this section</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cxPCFValues_rawData[0]_id</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Identifier for this data. Use this data to reference this entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cxPCFValues_rawData[0]_data[0]_key</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Describes a Property which contains plain text. This is intended exclusively for human readable strings, not for identifiers, measurement values, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cxPCFValues_rawData[0]_data[0]_value</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>cxPCFValues_pcfPerformanceClass</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Describes a Property which contains plain text. This is intended exclusively for human readable strings, not for identifiers, measurement values, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cxPCFValues_webLinkToCarbonFootPrintStudy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The path of a resource.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dataQualityRating_coveragePercent</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mandatory starting 2025: Percentage of PCF (Product Carbon Footprint) included in the data quality assessment based on the &gt;5% emissions threshold as specified in the Catena-X PCF Rulebook (Version 3.0.0) in accordance with the technical specifications for PCF Data Exchange (Version 2.0.0) from the WBCSD (World Business Council for Sustainable Development)/ PACT initiative. In Catena-X for example set to "100" per default.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>dataQualityRating_technologicalDQR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Optional: Technological representativeness of the sources used for PCF (Product Carbon Footprint) calculation based on weighted average of all inputs representing &gt;5% of PCF emissions. Specified in the Catena-X PCF Rulebook (Version 3.0.0) in accordance with the technical specifications for PCF Data Exchange (Version 2.0.0) from the WBCSD (World Business Council for Sustainable Development)/ PACT initiative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dataQualityRating_temporalDQR</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Optional: Temporal representativeness of the sources used for PCF (Product Carbon Footprint) calculation based on weighted average of all inputs representing &gt;5% of PCF emissions. Specified in the Catena-X PCF Rulebook (Version 3.0.0) in accordance with the technical specifications for PCF Data Exchange (Version 2.0.0) from the WBCSD (World Business Council for Sustainable Development)/ PACT initiative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dataQualityRating_geographicalDQR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Optional: Geographical representativeness of the sources used for PCF (Product Carbon Footprint) calculation based on weighted average of all inputs representing &gt;5% of PCF emissions. Specified in the Catena-X PCF Rulebook (Version 3.0.0) in accordance with the technical specifications for PCF Data Exchange (Version 2.0.0) from the WBCSD (World Business Council for Sustainable Development)/ PACT initiative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dataQualityRating_completenessDQR</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Optional: Completeness of the data collected for PCF (Product Carbon Footprint) calculation based on weighted average of all inputs representing &gt;5% of PCF emissions. Specified in the Catena-X PCF Rulebook (Version 3.0.0) in accordance with the technical specifications for PCF Data Exchange (Version 2.0.0) from the WBCSD (World Business Council for Sustainable Development)/ PACT initiative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dataQualityRating_reliabilityDQR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Optional: Reliability of the data collected for PCF (Product Carbon Footprint) calculation based on weighted average of all inputs representing &gt;5% of PCF emissions. Specified in the Catena-X PCF Rulebook (Version 3.0.0) in accordance with the technical specifications for PCF Data Exchange (Version 2.0.0) from the WBCSD (World Business Council for Sustainable Development)/ PACT initiative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>secondaryEmissionFactorSources[0]_secondaryEmissionFactorSource</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mandatory: Emission factor data source used to calculate a product carbon footprint as specified in the Catena-X PCF Rulebook (Version 3.0.0) in accordance with the technical specifications for PCF Data Exchange (Version 2.0.0) from the WBCSD (World Business Council for Sustainable Development)/ PACT initiative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>primaryDataShare</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mandatory starting 2025: Share of primary data in percent as specified in the Catena-X PCF Rulebook (Version 3.0.0) in accordance with the technical specifications for PCF Data Exchange (Version 2.0.0) from the WBCSD (World Business Council for Sustainable Development)/ PACT initiative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>manufacturerPartId</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>This is PartNumber assigend by the producer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>basedOnCommit</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4f05217c4b244744bb7570067ce3721b58a15718</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>commitHtmlUrl</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://github.com/dataspacesolutions/sldt-semantic-models/commit/4f05217c4b244744bb7570067ce3721b58a15718</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>commitDate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-04-28 11:50:46+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>commitMessage</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>added custom aspect models</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel_reporting_templates/ProductCarbonFootprintForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/ProductCarbonFootprintForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -491,19 +491,19 @@
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="46.8" customWidth="1" min="8" max="8"/>
-    <col width="40.8" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
-    <col width="40.8" customWidth="1" min="11" max="11"/>
-    <col width="43.2" customWidth="1" min="12" max="12"/>
-    <col width="37.2" customWidth="1" min="13" max="13"/>
-    <col width="49.2" customWidth="1" min="14" max="14"/>
-    <col width="39.6" customWidth="1" min="15" max="15"/>
-    <col width="40.8" customWidth="1" min="16" max="16"/>
-    <col width="34.8" customWidth="1" min="17" max="17"/>
-    <col width="39.6" customWidth="1" min="18" max="18"/>
-    <col width="39.6" customWidth="1" min="19" max="19"/>
-    <col width="38.4" customWidth="1" min="20" max="20"/>
+    <col width="49.2" customWidth="1" min="8" max="8"/>
+    <col width="43.2" customWidth="1" min="9" max="9"/>
+    <col width="32.4" customWidth="1" min="10" max="10"/>
+    <col width="44.4" customWidth="1" min="11" max="11"/>
+    <col width="46.8" customWidth="1" min="12" max="12"/>
+    <col width="38.4" customWidth="1" min="13" max="13"/>
+    <col width="50" customWidth="1" min="14" max="14"/>
+    <col width="40.8" customWidth="1" min="15" max="15"/>
+    <col width="42" customWidth="1" min="16" max="16"/>
+    <col width="36" customWidth="1" min="17" max="17"/>
+    <col width="40.8" customWidth="1" min="18" max="18"/>
+    <col width="40.8" customWidth="1" min="19" max="19"/>
+    <col width="39.6" customWidth="1" min="20" max="20"/>
     <col width="50" customWidth="1" min="21" max="21"/>
     <col width="19.2" customWidth="1" min="22" max="22"/>
     <col width="21.6" customWidth="1" min="23" max="23"/>
@@ -527,92 +527,92 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_stage1RawMaterialAquisitionPreProcessing_stageValue</t>
+          <t>cxPCFValues__sharesPerStage__stage1RawMaterialAquisitionPreProcessing__stageValue</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_stage2MainProductProduction_stageValue</t>
+          <t>cxPCFValues__sharesPerStage__stage2MainProductProduction__stageValue</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_stage3Distribution_stageValue</t>
+          <t>cxPCFValues__sharesPerStage__stage3Distribution__stageValue</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_stage4EndOfLifeRecycling_stageValue</t>
+          <t>cxPCFValues__sharesPerStage__stage4EndOfLifeRecycling__stageValue</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_declaredUnit</t>
+          <t>cxPCFValues__sharesPerStage__declaredUnit</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_rawData[0]_description</t>
+          <t>cxPCFValues__rawData[0]__description</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_rawData[0]_id</t>
+          <t>cxPCFValues__rawData[0]__id</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_rawData[0]_data[0]_key</t>
+          <t>cxPCFValues__rawData[0]__data[0]__key</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>cxPCFValues_rawData[0]_data[0]_value</t>
+          <t>cxPCFValues__rawData[0]__data[0]__value</t>
         </is>
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
-          <t>cxPCFValues_pcfPerformanceClass</t>
+          <t>cxPCFValues__pcfPerformanceClass</t>
         </is>
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>cxPCFValues_webLinkToCarbonFootPrintStudy</t>
+          <t>cxPCFValues__webLinkToCarbonFootPrintStudy</t>
         </is>
       </c>
       <c r="O1" s="3" t="inlineStr">
         <is>
-          <t>dataQualityRating_coveragePercent</t>
+          <t>dataQualityRating__coveragePercent</t>
         </is>
       </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>dataQualityRating_technologicalDQR</t>
+          <t>dataQualityRating__technologicalDQR</t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>dataQualityRating_temporalDQR</t>
+          <t>dataQualityRating__temporalDQR</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>dataQualityRating_geographicalDQR</t>
+          <t>dataQualityRating__geographicalDQR</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>dataQualityRating_completenessDQR</t>
+          <t>dataQualityRating__completenessDQR</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>dataQualityRating_reliabilityDQR</t>
+          <t>dataQualityRating__reliabilityDQR</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>secondaryEmissionFactorSources[0]_secondaryEmissionFactorSource</t>
+          <t>secondaryEmissionFactorSources[0]__secondaryEmissionFactorSource</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2. Columns highlighted in olive green are digital twin fields.</t>
+          <t>1. Columns highlighted in olive green are digital twin fields.</t>
         </is>
       </c>
       <c r="B3" s="5" t="n"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: id</t>
+          <t>Digital Twin Field Name: id</t>
         </is>
       </c>
       <c r="C5" s="7" t="n"/>
@@ -715,7 +715,7 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>Digital Twin Field: manufacturerPartId</t>
+          <t>Digital Twin Field Name: manufacturerPartId</t>
         </is>
       </c>
       <c r="C6" s="8" t="n"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: partInstanceId</t>
+          <t>Digital Twin Field Name: partInstanceId</t>
         </is>
       </c>
       <c r="C7" s="7" t="n"/>
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_stage1RawMaterialAquisitionPreProcessing_stageValue</t>
+          <t>cxPCFValues__sharesPerStage__stage1RawMaterialAquisitionPreProcessing__stageValue</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_stage2MainProductProduction_stageValue</t>
+          <t>cxPCFValues__sharesPerStage__stage2MainProductProduction__stageValue</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_stage3Distribution_stageValue</t>
+          <t>cxPCFValues__sharesPerStage__stage3Distribution__stageValue</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -775,7 +775,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_stage4EndOfLifeRecycling_stageValue</t>
+          <t>cxPCFValues__sharesPerStage__stage4EndOfLifeRecycling__stageValue</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>cxPCFValues_sharesPerStage_declaredUnit</t>
+          <t>cxPCFValues__sharesPerStage__declaredUnit</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>cxPCFValues_rawData[0]_description</t>
+          <t>cxPCFValues__rawData[0]__description</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>cxPCFValues_rawData[0]_id</t>
+          <t>cxPCFValues__rawData[0]__id</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>cxPCFValues_rawData[0]_data[0]_key</t>
+          <t>cxPCFValues__rawData[0]__data[0]__key</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>cxPCFValues_rawData[0]_data[0]_value</t>
+          <t>cxPCFValues__rawData[0]__data[0]__value</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr"/>
@@ -853,7 +853,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>cxPCFValues_pcfPerformanceClass</t>
+          <t>cxPCFValues__pcfPerformanceClass</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -866,7 +866,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>cxPCFValues_webLinkToCarbonFootPrintStudy</t>
+          <t>cxPCFValues__webLinkToCarbonFootPrintStudy</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>dataQualityRating_coveragePercent</t>
+          <t>dataQualityRating__coveragePercent</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>dataQualityRating_technologicalDQR</t>
+          <t>dataQualityRating__technologicalDQR</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>dataQualityRating_temporalDQR</t>
+          <t>dataQualityRating__temporalDQR</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>dataQualityRating_geographicalDQR</t>
+          <t>dataQualityRating__geographicalDQR</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -931,7 +931,7 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>dataQualityRating_completenessDQR</t>
+          <t>dataQualityRating__completenessDQR</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>dataQualityRating_reliabilityDQR</t>
+          <t>dataQualityRating__reliabilityDQR</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>secondaryEmissionFactorSources[0]_secondaryEmissionFactorSource</t>
+          <t>secondaryEmissionFactorSources[0]__secondaryEmissionFactorSource</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">

--- a/excel_reporting_templates/ProductCarbonFootprintForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/ProductCarbonFootprintForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -484,7 +484,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.4" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
@@ -512,7 +512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -697,7 +697,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
